--- a/deployment/Omaha_Cal_Info_CE02SHSP_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CE02SHSP_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\CE_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="720" windowWidth="25596" windowHeight="16056" tabRatio="579"/>
+    <workbookView xWindow="-180" yWindow="720" windowWidth="25590" windowHeight="16050" tabRatio="579"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$I$51</definedName>
     <definedName name="Workbook1" localSheetId="1">Asset_Cal_Info!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -337,28 +337,7 @@
     <t>Elakha</t>
   </si>
   <si>
-    <t>CE02SHSP-SP001-02-DOSTAJ000</t>
-  </si>
-  <si>
     <t>CE02SHSP-SP001-04-OPTAAJ000</t>
-  </si>
-  <si>
-    <t>CE02SHSP-SP001-05-VELPTJ000</t>
-  </si>
-  <si>
-    <t>CE02SHSP-SP001-06-NUTNRJ000</t>
-  </si>
-  <si>
-    <t>CE02SHSP-SP001-07-SPKIRJ000</t>
-  </si>
-  <si>
-    <t>CE02SHSP-SP001-08-FLORTJ000</t>
-  </si>
-  <si>
-    <t>CE02SHSP-SP001-09-CTDPFJ000</t>
-  </si>
-  <si>
-    <t>CE02SHSP-SP001-10-PARADJ000</t>
   </si>
   <si>
     <t>CE02SHSP-SP001-00-SPPENG000</t>
@@ -401,6 +380,27 @@
   </si>
   <si>
     <t>N00587</t>
+  </si>
+  <si>
+    <t>CE02SHSP-SP001-01-DOSTAJ000</t>
+  </si>
+  <si>
+    <t>CE02SHSP-SP001-02-VELPTJ000</t>
+  </si>
+  <si>
+    <t>CE02SHSP-SP001-05-NUTNRJ000</t>
+  </si>
+  <si>
+    <t>CE02SHSP-SP001-06-SPKIRJ000</t>
+  </si>
+  <si>
+    <t>CE02SHSP-SP001-07-FLORTJ000</t>
+  </si>
+  <si>
+    <t>CE02SHSP-SP001-08-CTDPFJ000</t>
+  </si>
+  <si>
+    <t>CE02SHSP-SP001-09-PARADJ000</t>
   </si>
 </sst>
 </file>
@@ -2327,29 +2327,28 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2385,9 +2384,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>86</v>
@@ -2428,31 +2427,31 @@
         <v>-124.29882000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
@@ -2461,7 +2460,7 @@
         <v>44.635860000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
@@ -2470,55 +2469,55 @@
         <v>-124.29882000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="4:7" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
@@ -2542,28 +2541,28 @@
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="C34" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="5" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="17" style="7" customWidth="1"/>
-    <col min="7" max="7" width="32.77734375" customWidth="1"/>
-    <col min="8" max="8" width="57.33203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="57.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>59</v>
@@ -2572,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>2</v>
@@ -2587,7 +2586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2598,12 +2597,12 @@
       <c r="H2" s="16"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>87</v>
@@ -2612,7 +2611,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F3" s="40">
         <v>351</v>
@@ -2627,12 +2626,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>91</v>
+    <row r="4" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>87</v>
@@ -2641,7 +2640,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F4" s="40">
         <v>351</v>
@@ -2656,12 +2655,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>91</v>
+    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>87</v>
@@ -2670,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F5" s="40">
         <v>351</v>
@@ -2688,12 +2687,12 @@
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
     </row>
-    <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>91</v>
+    <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>87</v>
@@ -2702,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F6" s="40">
         <v>351</v>
@@ -2717,7 +2716,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="23"/>
@@ -2728,12 +2727,12 @@
       <c r="H7" s="21"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>87</v>
@@ -2742,7 +2741,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>65</v>
@@ -2757,12 +2756,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>87</v>
@@ -2771,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>65</v>
@@ -2784,12 +2783,12 @@
       </c>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>87</v>
@@ -2798,7 +2797,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>65</v>
@@ -2811,12 +2810,12 @@
       </c>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>87</v>
@@ -2825,7 +2824,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F11" s="40" t="s">
         <v>65</v>
@@ -2838,12 +2837,12 @@
       </c>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>87</v>
@@ -2852,7 +2851,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>65</v>
@@ -2865,12 +2864,12 @@
       </c>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>87</v>
@@ -2879,7 +2878,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F13" s="40" t="s">
         <v>65</v>
@@ -2892,12 +2891,12 @@
       </c>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>87</v>
@@ -2906,7 +2905,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F14" s="40" t="s">
         <v>65</v>
@@ -2919,12 +2918,12 @@
       </c>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>87</v>
@@ -2933,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F15" s="40" t="s">
         <v>65</v>
@@ -2946,7 +2945,7 @@
       </c>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="23"/>
@@ -2957,12 +2956,12 @@
       <c r="H16" s="21"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s">
         <v>93</v>
-      </c>
-      <c r="B17" t="s">
-        <v>100</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>87</v>
@@ -2971,10 +2970,10 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>7</v>
@@ -2986,12 +2985,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
         <v>93</v>
-      </c>
-      <c r="B18" t="s">
-        <v>100</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>87</v>
@@ -3000,10 +2999,10 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>8</v>
@@ -3015,7 +3014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="23"/>
@@ -3026,12 +3025,12 @@
       <c r="H19" s="21"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>87</v>
@@ -3040,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F20" s="40">
         <v>425</v>
@@ -3055,12 +3054,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>94</v>
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>87</v>
@@ -3069,7 +3068,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F21" s="40">
         <v>425</v>
@@ -3084,12 +3083,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>94</v>
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>87</v>
@@ -3098,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F22" s="40">
         <v>425</v>
@@ -3113,12 +3112,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>94</v>
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>87</v>
@@ -3127,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F23" s="40">
         <v>425</v>
@@ -3142,12 +3141,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>94</v>
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>87</v>
@@ -3156,7 +3155,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F24" s="40">
         <v>425</v>
@@ -3171,12 +3170,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>94</v>
+    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>87</v>
@@ -3185,7 +3184,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F25" s="40">
         <v>425</v>
@@ -3200,12 +3199,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>94</v>
+    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>87</v>
@@ -3214,7 +3213,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F26" s="40">
         <v>425</v>
@@ -3229,7 +3228,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="23"/>
@@ -3240,12 +3239,12 @@
       <c r="H27" s="21"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>87</v>
@@ -3254,7 +3253,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F28" s="40">
         <v>264</v>
@@ -3267,12 +3266,12 @@
       </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
-        <v>95</v>
+    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>87</v>
@@ -3281,7 +3280,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F29" s="40">
         <v>264</v>
@@ -3294,12 +3293,12 @@
       </c>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
-        <v>95</v>
+    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>87</v>
@@ -3308,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F30" s="40">
         <v>264</v>
@@ -3321,7 +3320,7 @@
       </c>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="23"/>
@@ -3332,12 +3331,12 @@
       <c r="H31" s="21"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>87</v>
@@ -3346,7 +3345,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F32" s="40">
         <v>1206</v>
@@ -3361,12 +3360,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
-        <v>96</v>
+    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>87</v>
@@ -3375,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F33" s="40">
         <v>1206</v>
@@ -3390,12 +3389,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
-        <v>96</v>
+    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>87</v>
@@ -3404,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F34" s="40">
         <v>1206</v>
@@ -3419,12 +3418,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
-        <v>96</v>
+    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>87</v>
@@ -3433,7 +3432,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F35" s="40">
         <v>1206</v>
@@ -3448,12 +3447,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
-        <v>96</v>
+    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>87</v>
@@ -3462,7 +3461,7 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F36" s="40">
         <v>1206</v>
@@ -3477,12 +3476,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
-        <v>96</v>
+    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>87</v>
@@ -3491,7 +3490,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F37" s="40">
         <v>1206</v>
@@ -3506,12 +3505,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
-        <v>96</v>
+    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>87</v>
@@ -3520,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F38" s="40">
         <v>1206</v>
@@ -3535,12 +3534,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
-        <v>96</v>
+    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C39" s="23" t="s">
         <v>87</v>
@@ -3549,7 +3548,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F39" s="40">
         <v>1206</v>
@@ -3564,12 +3563,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
-        <v>96</v>
+    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>87</v>
@@ -3578,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F40" s="40">
         <v>1206</v>
@@ -3593,12 +3592,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
-        <v>96</v>
+    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C41" s="23" t="s">
         <v>87</v>
@@ -3607,7 +3606,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F41" s="40">
         <v>1206</v>
@@ -3622,7 +3621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="23"/>
@@ -3633,12 +3632,12 @@
       <c r="H42" s="21"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>87</v>
@@ -3647,7 +3646,7 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F43" s="40" t="s">
         <v>82</v>
@@ -3662,12 +3661,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
-        <v>97</v>
+    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>87</v>
@@ -3676,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F44" s="40" t="s">
         <v>82</v>
@@ -3691,7 +3690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="23"/>
@@ -3702,12 +3701,12 @@
       <c r="H45" s="21"/>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>87</v>
@@ -3716,7 +3715,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F46" s="40">
         <v>434</v>
@@ -3729,12 +3728,12 @@
       </c>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
-        <v>98</v>
+    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>87</v>
@@ -3743,7 +3742,7 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F47" s="40">
         <v>434</v>
@@ -3756,12 +3755,12 @@
       </c>
       <c r="I47" s="16"/>
     </row>
-    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
-        <v>98</v>
+    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>87</v>
@@ -3770,7 +3769,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F48" s="40">
         <v>434</v>
@@ -3783,7 +3782,7 @@
       </c>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -3794,12 +3793,12 @@
       <c r="H49" s="30"/>
       <c r="I49" s="29"/>
     </row>
-    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>87</v>
@@ -3808,7 +3807,7 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F50" s="43" t="s">
         <v>81</v>
@@ -3817,10 +3816,10 @@
       <c r="H50" s="32"/>
       <c r="I50" s="16"/>
     </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:E54"/>
   <phoneticPr fontId="32" type="noConversion"/>
@@ -3842,9 +3841,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-2.7306E-2</v>
       </c>
@@ -3948,7 +3947,7 @@
         <v>2.2003000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-2.1257999999999999E-2</v>
       </c>
@@ -4052,7 +4051,7 @@
         <v>1.6747000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1.2599000000000001E-2</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>1.111E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4.3949999999999996E-3</v>
       </c>
@@ -4260,7 +4259,7 @@
         <v>3.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.9880000000000002E-3</v>
       </c>
@@ -4364,7 +4363,7 @@
         <v>-3.1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7.7140000000000004E-3</v>
       </c>
@@ -4468,7 +4467,7 @@
         <v>-3.039E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.038E-2</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>-4.8900000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.0441000000000001E-2</v>
       </c>
@@ -4676,7 +4675,7 @@
         <v>-5.3030000000000004E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9.8150000000000008E-3</v>
       </c>
@@ -4780,7 +4779,7 @@
         <v>-5.378E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9.7280000000000005E-3</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>-5.0800000000000003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9.1170000000000001E-3</v>
       </c>
@@ -4988,7 +4987,7 @@
         <v>-5.104E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9.0360000000000006E-3</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>-4.7270000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.0409999999999995E-3</v>
       </c>
@@ -5196,7 +5195,7 @@
         <v>-4.3819999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.1829999999999993E-3</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>-4.5630000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.2159999999999993E-3</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>-4.4270000000000004E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.6169999999999996E-3</v>
       </c>
@@ -5508,7 +5507,7 @@
         <v>-4.1739999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6.7520000000000002E-3</v>
       </c>
@@ -5612,7 +5611,7 @@
         <v>-4.1269999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.0699999999999999E-3</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>-4.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6.8310000000000003E-3</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>-4.1419999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6.4079999999999996E-3</v>
       </c>
@@ -5924,7 +5923,7 @@
         <v>-4.2430000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6.4419999999999998E-3</v>
       </c>
@@ -6028,7 +6027,7 @@
         <v>-4.2009999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6.2509999999999996E-3</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>-4.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6.1939999999999999E-3</v>
       </c>
@@ -6236,7 +6235,7 @@
         <v>-3.9050000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.6759999999999996E-3</v>
       </c>
@@ -6340,7 +6339,7 @@
         <v>-3.9870000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5.3439999999999998E-3</v>
       </c>
@@ -6444,7 +6443,7 @@
         <v>-3.7260000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5.2090000000000001E-3</v>
       </c>
@@ -6548,7 +6547,7 @@
         <v>-3.5729999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.9170000000000004E-3</v>
       </c>
@@ -6652,7 +6651,7 @@
         <v>-3.578E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4.7239999999999999E-3</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>-3.392E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4.0660000000000002E-3</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>-3.2490000000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.2430000000000002E-3</v>
       </c>
@@ -6964,7 +6963,7 @@
         <v>-3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.777E-3</v>
       </c>
@@ -7068,7 +7067,7 @@
         <v>-3.0130000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3.607E-3</v>
       </c>
@@ -7172,7 +7171,7 @@
         <v>-2.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3.2729999999999999E-3</v>
       </c>
@@ -7276,7 +7275,7 @@
         <v>-2.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3.0950000000000001E-3</v>
       </c>
@@ -7380,7 +7379,7 @@
         <v>-2.2269999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3.0699999999999998E-3</v>
       </c>
@@ -7484,7 +7483,7 @@
         <v>-1.8309999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3.0349999999999999E-3</v>
       </c>
@@ -7588,7 +7587,7 @@
         <v>-1.588E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.2399999999999998E-3</v>
       </c>
@@ -7692,7 +7691,7 @@
         <v>-1.4289999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3.1510000000000002E-3</v>
       </c>
@@ -7796,7 +7795,7 @@
         <v>-1.129E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.0019999999999999E-3</v>
       </c>
@@ -7900,7 +7899,7 @@
         <v>-1.0009999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.911E-3</v>
       </c>
@@ -8004,7 +8003,7 @@
         <v>-9.6299999999999999E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.9169999999999999E-3</v>
       </c>
@@ -8108,7 +8107,7 @@
         <v>-9.0200000000000002E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2.4870000000000001E-3</v>
       </c>
@@ -8212,7 +8211,7 @@
         <v>-8.8800000000000001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2.565E-3</v>
       </c>
@@ -8316,7 +8315,7 @@
         <v>-8.7500000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2.1519999999999998E-3</v>
       </c>
@@ -8420,7 +8419,7 @@
         <v>-9.0399999999999996E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.918E-3</v>
       </c>
@@ -8524,7 +8523,7 @@
         <v>1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2.2130000000000001E-3</v>
       </c>
@@ -8628,7 +8627,7 @@
         <v>1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2.3509999999999998E-3</v>
       </c>
@@ -8732,7 +8731,7 @@
         <v>-8.2999999999999998E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2.6870000000000002E-3</v>
       </c>
@@ -8836,7 +8835,7 @@
         <v>-1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2.7929999999999999E-3</v>
       </c>
@@ -8940,7 +8939,7 @@
         <v>-3.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2.7260000000000001E-3</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>-4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2.859E-3</v>
       </c>
@@ -9148,7 +9147,7 @@
         <v>-4.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2.8110000000000001E-3</v>
       </c>
@@ -9252,7 +9251,7 @@
         <v>-6.5300000000000004E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2.5959999999999998E-3</v>
       </c>
@@ -9356,7 +9355,7 @@
         <v>-6.4199999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2.3879999999999999E-3</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>-6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2.1250000000000002E-3</v>
       </c>
@@ -9564,7 +9563,7 @@
         <v>-7.5299999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.838E-3</v>
       </c>
@@ -9668,7 +9667,7 @@
         <v>-7.6499999999999995E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.5709999999999999E-3</v>
       </c>
@@ -9772,7 +9771,7 @@
         <v>-8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.358E-3</v>
       </c>
@@ -9876,7 +9875,7 @@
         <v>-8.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.088E-3</v>
       </c>
@@ -9980,7 +9979,7 @@
         <v>-9.5699999999999995E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8.8999999999999995E-4</v>
       </c>
@@ -10084,7 +10083,7 @@
         <v>-9.4300000000000004E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4.75E-4</v>
       </c>
@@ -10188,7 +10187,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2.5300000000000002E-4</v>
       </c>
@@ -10292,7 +10291,7 @@
         <v>-1.163E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2.23E-4</v>
       </c>
@@ -10396,7 +10395,7 @@
         <v>-1.232E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-2.13E-4</v>
       </c>
@@ -10500,7 +10499,7 @@
         <v>-1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-3.5300000000000002E-4</v>
       </c>
@@ -10604,7 +10603,7 @@
         <v>-1.341E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-6.9099999999999999E-4</v>
       </c>
@@ -10708,7 +10707,7 @@
         <v>-1.371E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-6.6200000000000005E-4</v>
       </c>
@@ -10812,7 +10811,7 @@
         <v>-1.4250000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-8.6600000000000002E-4</v>
       </c>
@@ -10916,7 +10915,7 @@
         <v>-1.436E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-9.8299999999999993E-4</v>
       </c>
@@ -11020,7 +11019,7 @@
         <v>-1.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.134E-3</v>
       </c>
@@ -11124,7 +11123,7 @@
         <v>-1.578E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-1.106E-3</v>
       </c>
@@ -11228,7 +11227,7 @@
         <v>-1.518E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-1.542E-3</v>
       </c>
@@ -11332,7 +11331,7 @@
         <v>-1.5120000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-1.658E-3</v>
       </c>
@@ -11436,7 +11435,7 @@
         <v>-1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-1.7930000000000001E-3</v>
       </c>
@@ -11540,7 +11539,7 @@
         <v>-1.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-1.9610000000000001E-3</v>
       </c>
@@ -11644,7 +11643,7 @@
         <v>-1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-1.92E-3</v>
       </c>
@@ -11748,7 +11747,7 @@
         <v>-8.12E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-2.1649999999999998E-3</v>
       </c>
@@ -11852,7 +11851,7 @@
         <v>-5.9800000000000001E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-2.274E-3</v>
       </c>
@@ -11956,7 +11955,7 @@
         <v>-3.3300000000000002E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-2.4229999999999998E-3</v>
       </c>
@@ -12060,7 +12059,7 @@
         <v>-2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-2.5240000000000002E-3</v>
       </c>
@@ -12164,7 +12163,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-2.5490000000000001E-3</v>
       </c>
@@ -12268,7 +12267,7 @@
         <v>2.6899999999999998E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-2.5799999999999998E-3</v>
       </c>
@@ -12372,7 +12371,7 @@
         <v>4.5600000000000003E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-2.421E-3</v>
       </c>
@@ -12476,7 +12475,7 @@
         <v>4.3100000000000001E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-2.4420000000000002E-3</v>
       </c>
@@ -12580,7 +12579,7 @@
         <v>4.5800000000000002E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-2.117E-3</v>
       </c>
@@ -12684,7 +12683,7 @@
         <v>4.8200000000000001E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-2.3029999999999999E-3</v>
       </c>
@@ -12806,9 +12805,9 @@
       <selection sqref="A1:AH86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2.818E-2</v>
       </c>
@@ -12912,7 +12911,7 @@
         <v>-1.3003000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.9113999999999999E-2</v>
       </c>
@@ -13016,7 +13015,7 @@
         <v>-1.0573000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.0387E-2</v>
       </c>
@@ -13120,7 +13119,7 @@
         <v>-9.0050000000000009E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.8069999999999997E-3</v>
       </c>
@@ -13224,7 +13223,7 @@
         <v>-8.1989999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.4920000000000004E-3</v>
       </c>
@@ -13328,7 +13327,7 @@
         <v>-6.4209999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3.483E-3</v>
       </c>
@@ -13432,7 +13431,7 @@
         <v>-5.2810000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.4060000000000002E-3</v>
       </c>
@@ -13536,7 +13535,7 @@
         <v>-4.2729999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.4300000000000001E-3</v>
       </c>
@@ -13640,7 +13639,7 @@
         <v>-3.3270000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1.129E-3</v>
       </c>
@@ -13744,7 +13743,7 @@
         <v>-2.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-1.812E-3</v>
       </c>
@@ -13848,7 +13847,7 @@
         <v>-1.8680000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-2.7070000000000002E-3</v>
       </c>
@@ -13952,7 +13951,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-4.6169999999999996E-3</v>
       </c>
@@ -14056,7 +14055,7 @@
         <v>-7.1100000000000004E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-4.8739999999999999E-3</v>
       </c>
@@ -14160,7 +14159,7 @@
         <v>-5.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-5.3109999999999997E-3</v>
       </c>
@@ -14264,7 +14263,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-6.7479999999999997E-3</v>
       </c>
@@ -14368,7 +14367,7 @@
         <v>9.2900000000000003E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-6.149E-3</v>
       </c>
@@ -14472,7 +14471,7 @@
         <v>1.4610000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-6.437E-3</v>
       </c>
@@ -14576,7 +14575,7 @@
         <v>1.7589999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-7.2789999999999999E-3</v>
       </c>
@@ -14680,7 +14679,7 @@
         <v>2.1549999999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-7.6649999999999999E-3</v>
       </c>
@@ -14784,7 +14783,7 @@
         <v>2.1870000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-8.8280000000000008E-3</v>
       </c>
@@ -14888,7 +14887,7 @@
         <v>2.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-9.3799999999999994E-3</v>
       </c>
@@ -14992,7 +14991,7 @@
         <v>2.6700000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-9.2580000000000006E-3</v>
       </c>
@@ -15096,7 +15095,7 @@
         <v>2.8349999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.0026E-2</v>
       </c>
@@ -15200,7 +15199,7 @@
         <v>2.7989999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.0159E-2</v>
       </c>
@@ -15304,7 +15303,7 @@
         <v>2.8739999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-9.9780000000000008E-3</v>
       </c>
@@ -15408,7 +15407,7 @@
         <v>2.8479999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.0371E-2</v>
       </c>
@@ -15512,7 +15511,7 @@
         <v>2.7680000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1.0656000000000001E-2</v>
       </c>
@@ -15616,7 +15615,7 @@
         <v>2.8119999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-1.0642E-2</v>
       </c>
@@ -15720,7 +15719,7 @@
         <v>2.7539999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.0969E-2</v>
       </c>
@@ -15824,7 +15823,7 @@
         <v>2.7669999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.1292E-2</v>
       </c>
@@ -15928,7 +15927,7 @@
         <v>2.771E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1.0963000000000001E-2</v>
       </c>
@@ -16032,7 +16031,7 @@
         <v>2.5690000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-1.1731999999999999E-2</v>
       </c>
@@ -16136,7 +16135,7 @@
         <v>2.506E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-1.1818E-2</v>
       </c>
@@ -16240,7 +16239,7 @@
         <v>2.369E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.2111E-2</v>
       </c>
@@ -16344,7 +16343,7 @@
         <v>2.212E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.2655E-2</v>
       </c>
@@ -16448,7 +16447,7 @@
         <v>2.1180000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.2838E-2</v>
       </c>
@@ -16552,7 +16551,7 @@
         <v>2.0839999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-1.2978999999999999E-2</v>
       </c>
@@ -16656,7 +16655,7 @@
         <v>2.0790000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1.304E-2</v>
       </c>
@@ -16760,7 +16759,7 @@
         <v>2.0609999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-1.2704999999999999E-2</v>
       </c>
@@ -16864,7 +16863,7 @@
         <v>2.0560000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1.2663000000000001E-2</v>
       </c>
@@ -16968,7 +16967,7 @@
         <v>2.0089999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-1.2364999999999999E-2</v>
       </c>
@@ -17072,7 +17071,7 @@
         <v>2.032E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-1.2322E-2</v>
       </c>
@@ -17176,7 +17175,7 @@
         <v>2.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-1.1955E-2</v>
       </c>
@@ -17280,7 +17279,7 @@
         <v>2.1069999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-1.2149E-2</v>
       </c>
@@ -17384,7 +17383,7 @@
         <v>2.0170000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-7.4850000000000003E-3</v>
       </c>
@@ -17488,7 +17487,7 @@
         <v>8.8599999999999996E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-7.2389999999999998E-3</v>
       </c>
@@ -17592,7 +17591,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-7.123E-3</v>
       </c>
@@ -17696,7 +17695,7 @@
         <v>6.3500000000000004E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-6.8180000000000003E-3</v>
       </c>
@@ -17800,7 +17799,7 @@
         <v>5.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-6.8339999999999998E-3</v>
       </c>
@@ -17904,7 +17903,7 @@
         <v>5.1099999999999995E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-6.881E-3</v>
       </c>
@@ -18008,7 +18007,7 @@
         <v>6.2399999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-6.9410000000000001E-3</v>
       </c>
@@ -18112,7 +18111,7 @@
         <v>6.7599999999999995E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-7.0809999999999996E-3</v>
       </c>
@@ -18216,7 +18215,7 @@
         <v>8.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-7.2399999999999999E-3</v>
       </c>
@@ -18320,7 +18319,7 @@
         <v>9.2699999999999998E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-7.4229999999999999E-3</v>
       </c>
@@ -18424,7 +18423,7 @@
         <v>1.114E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-7.6220000000000003E-3</v>
       </c>
@@ -18528,7 +18527,7 @@
         <v>1.3140000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-7.8150000000000008E-3</v>
       </c>
@@ -18632,7 +18631,7 @@
         <v>1.4549999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-8.0059999999999992E-3</v>
       </c>
@@ -18736,7 +18735,7 @@
         <v>1.5709999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-8.1650000000000004E-3</v>
       </c>
@@ -18840,7 +18839,7 @@
         <v>1.604E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-8.2880000000000002E-3</v>
       </c>
@@ -18944,7 +18943,7 @@
         <v>1.784E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-8.456E-3</v>
       </c>
@@ -19048,7 +19047,7 @@
         <v>1.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-8.6499999999999997E-3</v>
       </c>
@@ -19152,7 +19151,7 @@
         <v>1.897E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-8.6359999999999996E-3</v>
       </c>
@@ -19256,7 +19255,7 @@
         <v>1.7960000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-8.2819999999999994E-3</v>
       </c>
@@ -19360,7 +19359,7 @@
         <v>1.9239999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-8.7810000000000006E-3</v>
       </c>
@@ -19464,7 +19463,7 @@
         <v>1.9659999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-8.659E-3</v>
       </c>
@@ -19568,7 +19567,7 @@
         <v>1.9350000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-8.5939999999999992E-3</v>
       </c>
@@ -19672,7 +19671,7 @@
         <v>1.9689999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-8.9849999999999999E-3</v>
       </c>
@@ -19776,7 +19775,7 @@
         <v>1.884E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-8.744E-3</v>
       </c>
@@ -19880,7 +19879,7 @@
         <v>1.934E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-8.9210000000000001E-3</v>
       </c>
@@ -19984,7 +19983,7 @@
         <v>1.913E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-8.9890000000000005E-3</v>
       </c>
@@ -20088,7 +20087,7 @@
         <v>1.8760000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-9.1999999999999998E-3</v>
       </c>
@@ -20192,7 +20191,7 @@
         <v>1.8259999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-9.391E-3</v>
       </c>
@@ -20296,7 +20295,7 @@
         <v>1.7700000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-9.4769999999999993E-3</v>
       </c>
@@ -20400,7 +20399,7 @@
         <v>1.686E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-9.5189999999999997E-3</v>
       </c>
@@ -20504,7 +20503,7 @@
         <v>1.614E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-9.5060000000000006E-3</v>
       </c>
@@ -20608,7 +20607,7 @@
         <v>1.4649999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-9.6299999999999997E-3</v>
       </c>
@@ -20712,7 +20711,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-9.3120000000000008E-3</v>
       </c>
@@ -20816,7 +20815,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-9.6340000000000002E-3</v>
       </c>
@@ -20920,7 +20919,7 @@
         <v>1.4059999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-9.502E-3</v>
       </c>
@@ -21024,7 +21023,7 @@
         <v>1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-9.3539999999999995E-3</v>
       </c>
@@ -21128,7 +21127,7 @@
         <v>1.4909999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-9.4149999999999998E-3</v>
       </c>
@@ -21232,7 +21231,7 @@
         <v>1.485E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-9.0530000000000003E-3</v>
       </c>
@@ -21336,7 +21335,7 @@
         <v>1.5479999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-8.7790000000000003E-3</v>
       </c>
@@ -21440,7 +21439,7 @@
         <v>1.5139999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-8.6960000000000006E-3</v>
       </c>
@@ -21544,7 +21543,7 @@
         <v>1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-8.8369999999999994E-3</v>
       </c>
@@ -21648,7 +21647,7 @@
         <v>1.6180000000000001E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>-2.0132000000000001E-2</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CE02SHSP_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CE02SHSP_00002.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="720" windowWidth="25590" windowHeight="16050" tabRatio="579"/>
+    <workbookView xWindow="-180" yWindow="720" windowWidth="25590" windowHeight="16050" tabRatio="579" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$I$51</definedName>
     <definedName name="Workbook1" localSheetId="1">Asset_Cal_Info!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2326,7 +2326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -2541,8 +2541,8 @@
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="E40" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50:N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -3793,33 +3793,32 @@
       <c r="H49" s="30"/>
       <c r="I49" s="29"/>
     </row>
-    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="20">
-        <v>2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>96</v>
-      </c>
-      <c r="F50" s="43" t="s">
-        <v>81</v>
-      </c>
+    <row r="50" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G50" s="16"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="16"/>
-    </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="I50" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="J50" t="s">
+        <v>93</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="L50" s="20">
+        <v>2</v>
+      </c>
+      <c r="M50" t="s">
+        <v>96</v>
+      </c>
+      <c r="N50" s="43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:E54"/>
   <phoneticPr fontId="32" type="noConversion"/>

--- a/deployment/Omaha_Cal_Info_CE02SHSP_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CE02SHSP_00002.xlsx
@@ -414,7 +414,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,13 +633,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1315,7 +1308,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1408,16 +1401,13 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="7" borderId="4" xfId="33" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2388,34 +2378,34 @@
       <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="44">
         <v>2</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="45">
         <v>42081</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="46">
         <v>0.84375</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="47">
         <v>42124</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="45">
+      <c r="J2" s="44">
         <v>80</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="44" t="s">
         <v>90</v>
       </c>
       <c r="M2" s="8">
@@ -2456,7 +2446,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="11"/>
-      <c r="L7" s="50">
+      <c r="L7" s="49">
         <v>44.635860000000001</v>
       </c>
     </row>
@@ -2465,7 +2455,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="11"/>
-      <c r="L8" s="50">
+      <c r="L8" s="49">
         <v>-124.29882000000001</v>
       </c>
     </row>
@@ -2541,8 +2531,8 @@
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E40" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50:N50"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2619,7 +2609,7 @@
       <c r="G3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="50">
         <v>44.635860000000001</v>
       </c>
       <c r="I3" s="16" t="s">
@@ -2648,7 +2638,7 @@
       <c r="G4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="50">
         <v>-124.29882000000001</v>
       </c>
       <c r="I4" s="16" t="s">
@@ -2677,7 +2667,7 @@
       <c r="G5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="43" t="s">
         <v>83</v>
       </c>
       <c r="I5" s="33"/>
@@ -2978,7 +2968,7 @@
       <c r="G17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="50">
         <v>44.635860000000001</v>
       </c>
       <c r="I17" s="16" t="s">
@@ -3007,7 +2997,7 @@
       <c r="G18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="51">
         <v>-124.29882000000001</v>
       </c>
       <c r="I18" s="16" t="s">
@@ -3654,7 +3644,7 @@
       <c r="G43" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="51">
+      <c r="H43" s="50">
         <v>44.635860000000001</v>
       </c>
       <c r="I43" s="16" t="s">
@@ -3683,7 +3673,7 @@
       <c r="G44" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="52">
+      <c r="H44" s="51">
         <v>-124.29882000000001</v>
       </c>
       <c r="I44" s="28" t="s">
@@ -3782,43 +3772,37 @@
       </c>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:14" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="42"/>
+    <row r="49" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="20">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="42" t="s">
+        <v>81</v>
+      </c>
       <c r="G49" s="29"/>
       <c r="H49" s="30"/>
       <c r="I49" s="29"/>
     </row>
-    <row r="50" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G50" s="16"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="J50" t="s">
-        <v>93</v>
-      </c>
-      <c r="K50" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="L50" s="20">
-        <v>2</v>
-      </c>
-      <c r="M50" t="s">
-        <v>96</v>
-      </c>
-      <c r="N50" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:E54"/>
   <phoneticPr fontId="32" type="noConversion"/>
